--- a/DATA/computer_people.xlsx
+++ b/DATA/computer_people.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jstrick/curr/courses/python/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jstrick/Desktop/py3cirrsel/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FBCB34-2D10-624A-A4B5-A30528B8F97D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C3EC7A-5DF6-8F48-8B6F-0A571B75478A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10200" windowHeight="13780" tabRatio="211" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44860" yWindow="7580" windowWidth="10200" windowHeight="13780" tabRatio="211" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -469,10 +479,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -482,7 +492,7 @@
     <col min="5" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -509,8 +519,16 @@
       <c r="D2" s="1">
         <v>23604</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <f ca="1">INT((TODAY() - D2)/365)</f>
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <f ca="1">DATEDIF(D2,TODAY(),"y")</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -523,8 +541,16 @@
       <c r="D3" s="1">
         <v>20390</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <f t="shared" ref="E3:E12" ca="1" si="0">INT((TODAY() - D3)/365)</f>
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" ca="1" si="1">DATEDIF(D3,TODAY(),"y")</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -537,8 +563,16 @@
       <c r="D4" s="1">
         <v>20144</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -551,8 +585,16 @@
       <c r="D5" s="1">
         <v>19380</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -565,8 +607,16 @@
       <c r="D6" s="1">
         <v>16301</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -579,8 +629,16 @@
       <c r="D7" s="1">
         <v>30816</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -593,8 +651,16 @@
       <c r="D8" s="1">
         <v>26897</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -607,8 +673,16 @@
       <c r="D9" s="1">
         <v>26749</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -621,8 +695,16 @@
       <c r="D10" s="1">
         <v>25565</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -635,8 +717,16 @@
       <c r="D11" s="1">
         <v>19994</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -648,6 +738,14 @@
       </c>
       <c r="D12" s="1">
         <v>20485</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
